--- a/graphs/path_errors.xlsx
+++ b/graphs/path_errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t xml:space="preserve">Benchmark </t>
   </si>
@@ -99,16 +99,28 @@
     <t>non-robust</t>
   </si>
   <si>
-    <t>time (overall, including range verification)</t>
-  </si>
-  <si>
     <t>2.9.00000001</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>~20mins?</t>
+    <t>time (overall, including range verification) in seconds</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linear fit </t>
+  </si>
+  <si>
+    <t>quadratic fit</t>
+  </si>
+  <si>
+    <t>~150</t>
+  </si>
+  <si>
+    <t>~50</t>
   </si>
 </sst>
 </file>
@@ -180,19 +192,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -202,18 +216,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,7 +570,7 @@
   <dimension ref="A2:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -577,25 +601,25 @@
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -603,46 +627,46 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="20">
-      <c r="B5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="20">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="20"/>
     <row r="9" spans="1:11">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="16" thickBot="1">
       <c r="A10" s="3" t="s">
@@ -672,234 +696,322 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>1</v>
       </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="5">
         <v>2.251E-5</v>
       </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="5">
         <v>3.400001E-5</v>
       </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>1.5</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>1.5</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>2</v>
       </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14">
         <v>2.328647E-2</v>
       </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
       <c r="E14">
         <v>2.380814039E-2</v>
       </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>39</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>6</v>
       </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="5">
         <v>7.0337550000000001E-12</v>
       </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="5">
         <v>8.5789979999999993E-12</v>
       </c>
-      <c r="I16" s="1">
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2">
         <v>82.5</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>128</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>10</v>
       </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="5">
         <v>3.750028E-11</v>
       </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
       <c r="E18" s="5">
         <v>7.5000219999999997E-11</v>
       </c>
-      <c r="I18" s="1">
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2">
         <v>6</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>5.3</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>11</v>
       </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
       <c r="C20" s="5">
         <v>1.2499378000000001E-9</v>
       </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
       <c r="E20" s="5">
         <v>1.312439E-9</v>
       </c>
-      <c r="I20" s="1">
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2">
         <v>7.2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>7.3</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="16" thickBot="1">
+      <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4">
         <v>2.9000000000000101</v>
       </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1">
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8">
         <v>22</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.3350917490834502E-9</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <v>1346</v>
+      </c>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>1.9814240000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.99071200000000004</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>3.2177844000000002</v>
+      </c>
+      <c r="E28">
+        <v>0.63052520000000001</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
     </row>
     <row r="33" spans="9:11">
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="9:11">
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" spans="9:11">
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" spans="9:11">
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="9:11">
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="9:11">
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/graphs/path_errors.xlsx
+++ b/graphs/path_errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="1800" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t xml:space="preserve">Benchmark </t>
   </si>
   <si>
-    <t>simpleInterpolator</t>
-  </si>
-  <si>
     <t>squareRoot (Fluctuat)</t>
   </si>
   <si>
@@ -111,23 +108,48 @@
     <t>&amp;</t>
   </si>
   <si>
-    <t xml:space="preserve">linear fit </t>
-  </si>
-  <si>
-    <t>quadratic fit</t>
-  </si>
-  <si>
     <t>~150</t>
   </si>
   <si>
     <t>~50</t>
+  </si>
+  <si>
+    <t>simpleInterpolator (float)</t>
+  </si>
+  <si>
+    <t>quadratic fit (Piecewise2D)</t>
+  </si>
+  <si>
+    <t>linear fit (Piecewise2D)</t>
+  </si>
+  <si>
+    <t>quadratic fit (Piecewise2D,
+ x+/-1e-8 &amp;&amp; y+/-1e-8)</t>
+  </si>
+  <si>
+    <t>~735</t>
+  </si>
+  <si>
+    <t>~100</t>
+  </si>
+  <si>
+    <t>!0.6305252000000009</t>
+  </si>
+  <si>
+    <t>!0.6305252076631006</t>
+  </si>
+  <si>
+    <t>!3.217784400701105</t>
+  </si>
+  <si>
+    <t>!3.2177844000000015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +187,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +220,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -202,8 +230,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,16 +260,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,12 +610,12 @@
   <dimension ref="A2:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
@@ -586,7 +626,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="20">
       <c r="A2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -599,31 +639,31 @@
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="20">
       <c r="A4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="20">
@@ -634,36 +674,36 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="20">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="20"/>
     <row r="9" spans="1:11">
       <c r="C9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -674,30 +714,30 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -705,25 +745,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5">
-        <v>2.251E-5</v>
+        <v>2.51822175501656E-5</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5">
-        <v>3.400001E-5</v>
+        <v>3.6682214426411101E-5</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="2">
         <v>1.5</v>
@@ -740,25 +780,25 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>2.328647E-2</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>2.380814039E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="2">
         <v>3</v>
@@ -775,22 +815,22 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5">
         <v>7.0337550000000001E-12</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="5">
         <v>8.5789979999999993E-12</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="2">
         <v>82.5</v>
@@ -807,22 +847,22 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5">
         <v>3.750028E-11</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="5">
         <v>7.5000219999999997E-11</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I18" s="2">
         <v>6</v>
@@ -839,22 +879,22 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="5">
         <v>1.2499378000000001E-9</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="5">
         <v>1.312439E-9</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="2">
         <v>7.2</v>
@@ -871,22 +911,22 @@
     </row>
     <row r="22" spans="1:11" ht="16" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4">
         <v>2.9000000000000101</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -903,10 +943,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="5">
         <v>2.3350917490834502E-9</v>
@@ -924,7 +964,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>1.9814240000000001</v>
@@ -947,7 +987,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>3.2177844000000002</v>
@@ -956,24 +996,49 @@
         <v>0.63052520000000001</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11">
+      <c r="C29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11">
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+    <row r="30" spans="1:11" ht="30">
+      <c r="A30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>3.2177845</v>
+      </c>
+      <c r="E30">
+        <v>0.63052529999999996</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11">
+      <c r="C31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>

--- a/graphs/path_errors.xlsx
+++ b/graphs/path_errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="3140" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t xml:space="preserve">Benchmark </t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>path error (max)</t>
-  </si>
-  <si>
-    <t>[-3.55e-5, 2.4e-5]</t>
   </si>
   <si>
     <t>[-0.03941,0.03895]</t>
@@ -143,13 +140,28 @@
   </si>
   <si>
     <t>!3.2177844000000015</t>
+  </si>
+  <si>
+    <t>[-3.55e-5, 2.4e-5], tool itself gives 2.4e-5</t>
+  </si>
+  <si>
+    <t>approx</t>
+  </si>
+  <si>
+    <t>[-22.4195606, 22.4195603]</t>
+  </si>
+  <si>
+    <t>unfair comparison though, without constraints</t>
+  </si>
+  <si>
+    <t>[-2.10254023e-14, 2.10418879e-14]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +205,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,7 +238,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -234,8 +252,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -264,20 +284,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K38"/>
+  <dimension ref="A2:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -618,7 +645,7 @@
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="39.5" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="11" max="11" width="18.5" customWidth="1"/>
@@ -626,7 +653,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="20">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -639,31 +666,31 @@
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="20">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="20">
@@ -674,23 +701,23 @@
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="20">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="20"/>
@@ -703,7 +730,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -737,7 +764,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -745,25 +772,25 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5">
         <v>2.51822175501656E-5</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5">
         <v>3.6682214426411101E-5</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I12" s="2">
         <v>1.5</v>
@@ -783,22 +810,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>2.328647E-2</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>2.380814039E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2">
         <v>3</v>
@@ -818,19 +845,22 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5">
         <v>7.0337550000000001E-12</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="5">
         <v>8.5789979999999993E-12</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="I16" s="2">
         <v>82.5</v>
@@ -847,22 +877,25 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5">
         <v>3.750028E-11</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="5">
         <v>7.5000219999999997E-11</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>0.42886605799999999</v>
       </c>
       <c r="I18" s="2">
         <v>6</v>
@@ -879,22 +912,25 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5">
         <v>1.2499378000000001E-9</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="5">
         <v>1.312439E-9</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>0.42883943000000002</v>
       </c>
       <c r="I20" s="2">
         <v>7.2</v>
@@ -909,30 +945,33 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
-      <c r="A22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2.9000000000000101</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8">
-        <v>22</v>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>0.29472005258880102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>0.29472005258881601</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>7.5</v>
       </c>
       <c r="K22" s="2"/>
     </row>
@@ -941,142 +980,202 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="5">
+    <row r="24" spans="1:11" ht="16" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.9000000000000101</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8">
+        <v>22</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="5">
         <v>2.3350917490834502E-9</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
+      <c r="G27">
+        <v>54.3708332</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2">
         <v>1346</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="G28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
         <v>1.9814240000000001</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>0.99071200000000004</v>
       </c>
-      <c r="I26" s="2">
+      <c r="G29">
+        <v>2.9684952099999999</v>
+      </c>
+      <c r="I29" s="2">
         <v>3.5</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J29" s="2">
         <v>5.5</v>
       </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
         <v>3.2177844000000002</v>
       </c>
-      <c r="E28">
+      <c r="E31">
         <v>0.63052520000000001</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="G31">
+        <v>10.6029353</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="C29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="30">
-      <c r="A30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <v>3.2177845</v>
-      </c>
-      <c r="E30">
-        <v>0.63052529999999996</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="J31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="C32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="C31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11">
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="9:11">
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+    <row r="33" spans="1:11" ht="30">
+      <c r="A33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>3.2177845</v>
+      </c>
+      <c r="E33">
+        <v>0.63052529999999996</v>
+      </c>
+      <c r="G33">
+        <v>10.6029353</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="9:11">
+    <row r="34" spans="1:11">
+      <c r="C34" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="9:11">
+    <row r="35" spans="1:11">
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="9:11">
+    <row r="36" spans="1:11">
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="9:11">
+    <row r="37" spans="1:11">
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="9:11">
+    <row r="38" spans="1:11">
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/graphs/path_errors.xlsx
+++ b/graphs/path_errors.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="1940" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="results" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t xml:space="preserve">Benchmark </t>
   </si>
@@ -155,13 +156,62 @@
   </si>
   <si>
     <t>[-2.10254023e-14, 2.10418879e-14]</t>
+  </si>
+  <si>
+    <t>characteristics</t>
+  </si>
+  <si>
+    <t>characteristic</t>
+  </si>
+  <si>
+    <t>benchmark</t>
+  </si>
+  <si>
+    <t>"Big error"</t>
+  </si>
+  <si>
+    <t>"Lipschitz error"</t>
+  </si>
+  <si>
+    <t>simpleInterpolator (float, Fluctuat)</t>
+  </si>
+  <si>
+    <t>quadratic fit - non-rectangular</t>
+  </si>
+  <si>
+    <t>quadratic fit - non-rectangular
+x +/- 1e-8 &amp;&amp; y +/- 1e-8</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>cubic Spline</t>
+  </si>
+  <si>
+    <t>natural spline</t>
+  </si>
+  <si>
+    <t>(Piecewise 2D)</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>six-degree-linear</t>
+  </si>
+  <si>
+    <t>six-degree-quadratic</t>
+  </si>
+  <si>
+    <t>3D?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,6 +261,19 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +301,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -254,8 +317,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -272,12 +345,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,8 +356,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -298,6 +379,11 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -305,6 +391,11 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -634,558 +725,840 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K41"/>
+  <dimension ref="A2:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="39.5" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="6" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" ht="20">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="20">
-      <c r="A4" s="7" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="20">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="20">
-      <c r="B5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="20">
-      <c r="A6" s="7" t="s">
+    <row r="5" spans="1:10" ht="20">
+      <c r="B5" s="9"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="20">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="20"/>
-    <row r="9" spans="1:11">
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="1:10" ht="20">
+      <c r="A9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18">
+      <c r="B11" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18">
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="18">
+      <c r="B13" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18">
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="18">
+      <c r="B15" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18">
+      <c r="B16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" ht="18">
+      <c r="B17" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18">
+      <c r="B18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" ht="18">
+      <c r="B19" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="B21" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18">
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" ht="18">
+      <c r="B23" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18">
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" ht="18">
+      <c r="B25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>54.3708332</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1.9407730655717299E-11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" ht="18">
+      <c r="B27" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18">
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" ht="18">
+      <c r="B29" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18">
+      <c r="B30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" ht="18">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18">
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="1:2" ht="18">
+      <c r="B33" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18">
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="1:2" ht="36">
+      <c r="B35" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18">
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="1:2" ht="18">
+      <c r="B37" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18">
+      <c r="B38" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="36">
+      <c r="B39" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18">
+      <c r="B40" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="I4:I6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="20">
+      <c r="B2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="20">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="20">
+      <c r="A5" s="9"/>
+      <c r="C5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="20">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="20">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="D9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="I9" s="10" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="J9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" ht="16" thickBot="1">
       <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:12">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5">
         <v>2.51822175501656E-5</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5">
         <v>3.6682214426411101E-5</v>
       </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
       <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
         <v>40</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.5</v>
       </c>
       <c r="J12" s="2">
         <v>1.5</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="I13" s="2"/>
+      <c r="K12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
         <v>2.328647E-2</v>
       </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
         <v>2.380814039E-2</v>
       </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
       <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>3</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>39</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5">
         <v>7.0337550000000001E-12</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5">
         <v>8.5789979999999993E-12</v>
       </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>82.5</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>128</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="2:12">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5">
         <v>3.750028E-11</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5">
         <v>7.5000219999999997E-11</v>
       </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18">
         <v>0.42886605799999999</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>6</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>5.3</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:12">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="5">
         <v>1.2499378000000001E-9</v>
       </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="5">
         <v>1.312439E-9</v>
       </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20">
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20">
         <v>0.42883943000000002</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>7.2</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>7.3</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
         <v>0.29472005258880102</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22">
         <v>0.29472005258881601</v>
       </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
       <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>5</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>7.5</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="2:12">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
-      <c r="A24" s="4" t="s">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="2:12" ht="16" thickBot="1">
+      <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4">
         <v>2.9000000000000101</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8">
+      <c r="I24" s="4"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
         <v>22</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="I26" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="2:12">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>2.3350917490834502E-9</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>54.3708332</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
         <v>1346</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="G28" s="16" t="s">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="H28" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.9814240000000001</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.99071200000000004</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.9684952099999999</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>3.5</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>5.5</v>
       </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="I30" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="2:12">
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>3.2177844000000002</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.63052520000000001</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>10.6029353</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="C32" s="13" t="s">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="D32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" ht="30">
-      <c r="A33" s="12" t="s">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="2:12" ht="30">
+      <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3.2177845</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.63052529999999996</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>10.6029353</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="C34" s="13" t="s">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="D34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="F34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="I35" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="2:12">
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="I36" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="2:12">
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="I37" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="2:12">
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="I38" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="2:12">
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="I39" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12">
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="I40" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="2:12">
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="I41" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="2:12">
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="I4:I6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
